--- a/biology/Mycologie/Letharia_vulpina/Letharia_vulpina.xlsx
+++ b/biology/Mycologie/Letharia_vulpina/Letharia_vulpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Letharia vulpina est une espèce de lichens fruticuleux de la famille des Parmeliaceae indigène à l'Europe et à l'Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le thalle de Letharia vulpina est de couleur vive, variant de jaune à chartreuse. Il est de forme fruticuleuse, c'est-à-dire qu'il adhère au substrat par une surface réduite, et qu'il forme des prolongements, dans ce cas des prolongements redressés. Il forme des touffes de 2 à 7 cm de diamètre, en général[1]. La surface du thalle présente souvent une abondance de sorédies et d'isidies, structures impliquées dans la reproduction végétative.
-L'espèce Letharia vulpina ne doit pas être confondue avec sa congénère Letharia columbiana, dont le thalle ne présente pas d'isidie ni de sorédie, mais plutôt des apothécies[1]. De plus, ''Letharia columbiana est moins branchue[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle de Letharia vulpina est de couleur vive, variant de jaune à chartreuse. Il est de forme fruticuleuse, c'est-à-dire qu'il adhère au substrat par une surface réduite, et qu'il forme des prolongements, dans ce cas des prolongements redressés. Il forme des touffes de 2 à 7 cm de diamètre, en général. La surface du thalle présente souvent une abondance de sorédies et d'isidies, structures impliquées dans la reproduction végétative.
+L'espèce Letharia vulpina ne doit pas être confondue avec sa congénère Letharia columbiana, dont le thalle ne présente pas d'isidie ni de sorédie, mais plutôt des apothécies. De plus, ''Letharia columbiana est moins branchue.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve Letharia vulpina en Europe continentale et de l'Ouest, ainsi que dans l'Ouest de l'Amérique du Nord, dans le Nord-Ouest Pacifique. Ce lichen pousse sur le bois mort dépourvu d'écorce, le plus souvent dans les forêts sèches de conifères[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve Letharia vulpina en Europe continentale et de l'Ouest, ainsi que dans l'Ouest de l'Amérique du Nord, dans le Nord-Ouest Pacifique. Ce lichen pousse sur le bois mort dépourvu d'écorce, le plus souvent dans les forêts sèches de conifères.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Californie, les Klamaths faisaient macérer des épines de porcs-épics dans un extrait de Letharia vulpina pour les teindre en jaune avant d'en faire des paniers[3].
-Ce lichen a aussi été utilisé comme poison contre les loups et les renards[4]. En effet, en Europe, on remplissait des carcasses de rennes avec le lichen pour en faire des appâts mortels pour les carnivores. Letharia vulpina contient de l'acide vulpinique, un composé toxique pour certains mammifères.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Californie, les Klamaths faisaient macérer des épines de porcs-épics dans un extrait de Letharia vulpina pour les teindre en jaune avant d'en faire des paniers.
+Ce lichen a aussi été utilisé comme poison contre les loups et les renards. En effet, en Europe, on remplissait des carcasses de rennes avec le lichen pour en faire des appâts mortels pour les carnivores. Letharia vulpina contient de l'acide vulpinique, un composé toxique pour certains mammifères.
 </t>
         </is>
       </c>
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Formes
-Selon MycoBank                                            (7 février 2023)[5] :
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (7 février 2023) :
 Letharia vulpina f. americana Gyeln., 1931
 Letharia vulpina f. barbata Schade, 1955
 Letharia vulpina f. californica (Lév. ex Nyl.) W.A.Weber, 1965
@@ -628,43 +651,80 @@
 Letharia vulpina f. venosa Gyeln., 1932
 Letharia vulpina f. vulpina
 Letharia vulpina f. xantholina (Ach.) H.Olivier, 1907
-Variétés
-Selon MycoBank                                            (7 février 2023)[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Letharia_vulpina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Letharia_vulpina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des formes et variétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (7 février 2023) :
 Letharia vulpina var. incomta (Ach.) Motyka, 1962
 Letharia vulpina var. vulpina
 Letharia vulpina var. xantholina (Ach.) Motyka, 1962</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Letharia_vulpina</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Letharia_vulpina</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Letharia vulpina (L.) Hue, 1899[5],[6].
-L'espèce a été initialement classée dans le genre Lichen sous le basionyme Lichen vulpinus L., 1753[5].
-Letharia vulpina a pour synonymes[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Letharia vulpina (L.) Hue, 1899,.
+L'espèce a été initialement classée dans le genre Lichen sous le basionyme Lichen vulpinus L., 1753.
+Letharia vulpina a pour synonymes :
 Alectoria vulpina (L.) Mudd, 1861
 Chlorea vulpina var. vulpina (L.) Nyl., 1855
 Chlorea vulpina (L.) Nyl., 1855
@@ -679,31 +739,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Letharia_vulpina</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Letharia_vulpina</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(la) A. M. Hue, « Lichenes Extra-Europaei a pluribus collectoribus ad Museum Parisiense missi », Nouvelles archives du muséum d'histoire naturelle, Paris, 4e série, vol. 1,‎ 1899, p. 27-220 (ISSN 0766-7248, lire en ligne).</t>
         </is>
